--- a/biology/Botanique/Spartium_junceum/Spartium_junceum.xlsx
+++ b/biology/Botanique/Spartium_junceum/Spartium_junceum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le spartier à tiges de jonc ou spartier (Spartium junceum) est une espèce d'arbustes de la famille des Fabaceae. C'est la seule espèce encore acceptée dans le genre Spartium. Il est parfois appelé  faux genêt d'Espagne, genêt d'Espagne, geneste, gineste, joncier, spartier faux jonc ou spartion.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbuste aux fleurs jaune vif, ses rameaux, souvent sans feuilles, sont flexibles et restent verts une bonne partie de l'année puis virent au gris-brun avec des rayures vertes.
 Les feuilles alternes oblongues-lancéolées de 3 à 7 cm de long et 3 millimètres de large tombent tôt mais elles ont peu d'importance pour cette plante car une grande partie de la photosynthèse se produit dans les jeunes pousses vertes qui conservent l'eau (stratégie de climat sec).
@@ -548,18 +562,20 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Organes reproducteurs[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs
 Type d'inflorescence : racème simple
 Répartition des sexes : hermaphrodite
 Type de pollinisation : entomogame
 Période de floraison : mai à août
-Graine[1]
+Graine
 Type de fruit : gousse
 Mode de dissémination : autochore
 La dessiccation provoque une torsion de la gousse qui s'ouvre en projetant les graines jusqu'à plusieurs mètres de distance.
-Habitat et répartition[1]
+Habitat et répartition
 Habitat type : matorrals mésoméditerranéens, héliophiles, acidoclines
 Aire de répartition : cosmopolite (thermo)
 Étude toxicologique : contiendrait de la cytisine ou de la spartéine. La dose toxique est de une à deux poignées chez l'enfant.</t>
@@ -590,7 +606,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Toute la plante contient de la cytisine (alcaloïde). Elle est donc potentiellement toxique, comme le cytise. Cependant, la littérature ne rapporte pas de cas d’empoisonnement graves.
 </t>
@@ -621,13 +639,15 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aux XVIIIe et XIXe siècles, le genêt d'Espagne était une plante marginale récoltée par les paysans pour leurs propres besoins en toile domestique. Le rouissage des rameaux s’opérait au bord des cours d’eau, avant le filage et le tissage pratiqués au village, afin d’obtenir des draps et des vêtements, peut-être des cordages. C’est dans l’arrondissement de Lodève seulement que la culture du genêt est suivie. Ces cultures sont appelées des genêtières ou, plus souvent, des ginestières créées dans les lieux les plus arides, sur les coteaux les plus en pente, formés par un sol pierreux et où presque aucune autre plante ne peut végéter[2].
-Le genêt textile existait bien avant. Malgré les difficultés de localisation et d’interprétation qu’ils suscitent, Pline l'Ancien et Columelle l’attestent même dès l’Antiquité. Selon le "Dictionnaire des sciences naturelles" de 1820, "la plante attire les abeilles, nourrit les moutons et les chèvres, et donne des toiles". Pour d'autres, le genêt procure du bois pour le chauffage . En effet, dans certaines régions, le genêt d’Espagne constitue la seule nourriture fraîche pour les moutons et les chèvres pendant l’hiver, entre novembre et avril, à condition que sa consommation par les ovins reste modérée afin de ne pas risquer une infection des voies urinaires nommée ginestade. Le genêt, une fois semé, ne demande d’autre précaution que d’être préservé de la dent des troupeaux, pendant les trois premières années tout au plus. Ensuite, on coupe avec une serpe les tronçons qui ont été rongés, et au bout de six ans on est obligé de couper entièrement la souche pour qu’elle pousse de nouveau[3].
-Il est conclu dans cette étude[4] que l'huile de pépins de balai espagnole pourrait être utilisée pour fabriquer du savon, du shampoing pour les cheveux et de la résine alkyde.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux XVIIIe et XIXe siècles, le genêt d'Espagne était une plante marginale récoltée par les paysans pour leurs propres besoins en toile domestique. Le rouissage des rameaux s’opérait au bord des cours d’eau, avant le filage et le tissage pratiqués au village, afin d’obtenir des draps et des vêtements, peut-être des cordages. C’est dans l’arrondissement de Lodève seulement que la culture du genêt est suivie. Ces cultures sont appelées des genêtières ou, plus souvent, des ginestières créées dans les lieux les plus arides, sur les coteaux les plus en pente, formés par un sol pierreux et où presque aucune autre plante ne peut végéter.
+Le genêt textile existait bien avant. Malgré les difficultés de localisation et d’interprétation qu’ils suscitent, Pline l'Ancien et Columelle l’attestent même dès l’Antiquité. Selon le "Dictionnaire des sciences naturelles" de 1820, "la plante attire les abeilles, nourrit les moutons et les chèvres, et donne des toiles". Pour d'autres, le genêt procure du bois pour le chauffage . En effet, dans certaines régions, le genêt d’Espagne constitue la seule nourriture fraîche pour les moutons et les chèvres pendant l’hiver, entre novembre et avril, à condition que sa consommation par les ovins reste modérée afin de ne pas risquer une infection des voies urinaires nommée ginestade. Le genêt, une fois semé, ne demande d’autre précaution que d’être préservé de la dent des troupeaux, pendant les trois premières années tout au plus. Ensuite, on coupe avec une serpe les tronçons qui ont été rongés, et au bout de six ans on est obligé de couper entièrement la souche pour qu’elle pousse de nouveau.
+Il est conclu dans cette étude que l'huile de pépins de balai espagnole pourrait être utilisée pour fabriquer du savon, du shampoing pour les cheveux et de la résine alkyde.
 Les fleurs de Spartium junceum L. (Fabaceae) sont utilisées pour le traitement des ulcères peptiques dans la médecine populaire turque. 
-Cet article[5] a cherché a expliquer le rôle des principes antioxydants dans la puissante activité antiulcérogène de l'extrait. Les fractions riches en flavonoïdes ont montré une activité antioxydante puissante. 
+Cet article a cherché a expliquer le rôle des principes antioxydants dans la puissante activité antiulcérogène de l'extrait. Les fractions riches en flavonoïdes ont montré une activité antioxydante puissante. 
 </t>
         </is>
       </c>
